--- a/Scrum/Milestone 2/Sprint 2 Backlog.xlsx
+++ b/Scrum/Milestone 2/Sprint 2 Backlog.xlsx
@@ -1,27 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24504"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shekhar\Desktop\reafavour\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="657" documentId="11_3CFCC9262FC70715073B353488CDA3633207FD26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48546DE3-526A-45F8-9B8B-1216F9530957}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="lstMetrics">OFFSET('Product Backlog'!$C$5:$C$27,0,0,COUNTA('Product Backlog'!$C$5:$C$27))</definedName>
+    <definedName name="lstMetrics">OFFSET('Product Backlog'!$C$5:$C$26,0,0,COUNTA('Product Backlog'!$C$5:$C$26))</definedName>
     <definedName name="lstYears">OFFSET('Product Backlog'!$C$4:$J$4,0,1,1,COUNTA('Product Backlog'!$C$4:$J$4)-1)</definedName>
     <definedName name="SelectedYear">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171026" calcCompleted="0" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,9 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
-  <si>
-    <t>SPRINT #1 BACKLOG</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
+  <si>
+    <t>SPRINT #2 BACKLOG</t>
   </si>
   <si>
     <t>PBI ID</t>
@@ -62,22 +72,259 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>[Product backlog item 1]</t>
-  </si>
-  <si>
-    <t>[tasks that are required for PBI 1]</t>
+    <t>Product Backlog Item 54</t>
+  </si>
+  <si>
+    <t>US 54</t>
+  </si>
+  <si>
+    <t>As a customer, I want to be able to filter my search, so I can find the items I am interested in more easily.</t>
+  </si>
+  <si>
+    <t>Jared</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>[Product backlog item 2]</t>
-  </si>
-  <si>
-    <t>[tasks that are required for PBI 2]</t>
+    <t>Product Backlog Item 52</t>
+  </si>
+  <si>
+    <t>US 52</t>
+  </si>
+  <si>
+    <t>As a customer, I want to view my profile page so I can change my password</t>
+  </si>
+  <si>
+    <t>Aili</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 46</t>
+  </si>
+  <si>
+    <t>US 46</t>
+  </si>
+  <si>
+    <t>As a customer, I want to add a review to a book I purchased, so I can share my opinion.</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 57</t>
+  </si>
+  <si>
+    <t>US 57</t>
+  </si>
+  <si>
+    <t>As a customer, I want to add a review to a user who sold an item to me, so I can rate the seller.</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 43</t>
+  </si>
+  <si>
+    <t>US 43</t>
+  </si>
+  <si>
+    <t>As a Customer, I want to be able to view my order status, so that I can see the current status of my order</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 39</t>
+  </si>
+  <si>
+    <t>US 39</t>
+  </si>
+  <si>
+    <t>As a customer, I want to be able to sort my search results so that my search query starts from the lowest cost item.</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 38</t>
+  </si>
+  <si>
+    <t>US 38</t>
+  </si>
+  <si>
+    <t>As a customer, I want to be able to filter my search results so that I can view only used books for sale.</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 37</t>
+  </si>
+  <si>
+    <t>US 37</t>
+  </si>
+  <si>
+    <t>As a customer, I want to be able to filter my search results so that I can view only new books for sale.</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 62</t>
+  </si>
+  <si>
+    <t>US 62</t>
+  </si>
+  <si>
+    <t>As a customer, I want to be able to search for books in the catalog by the book's ISBN so that I can find books with a specific ISBN</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 34</t>
+  </si>
+  <si>
+    <t>US 34</t>
+  </si>
+  <si>
+    <t>As a customer, I want to be able to search for books in the catalog by the title of the book so that I can find books with a specific title or series title</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 33</t>
+  </si>
+  <si>
+    <t>US 33</t>
+  </si>
+  <si>
+    <t>As a customer, I want to be able to search for books in the catalog by the name of the author so that I can find books written by a specific author</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 58</t>
+  </si>
+  <si>
+    <t>US 58</t>
+  </si>
+  <si>
+    <t>As a customer, I want to be able to search for books in the catalog by the category of the book so that I can find books with a specific category</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 24</t>
+  </si>
+  <si>
+    <t>US 24</t>
+  </si>
+  <si>
+    <t>As a business user, I want to export a CSV of transactions, so I know if the business is making a profit</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 23</t>
+  </si>
+  <si>
+    <t>US 23</t>
+  </si>
+  <si>
+    <t>As a business user, I want to be able to upload an item to sell, so that an admin can approve it.</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 21</t>
+  </si>
+  <si>
+    <t>US 21</t>
+  </si>
+  <si>
+    <t>As a business user, I want to be able to register a business account so that I can sell and rent my books to customers.</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 19</t>
+  </si>
+  <si>
+    <t>US 19</t>
+  </si>
+  <si>
+    <t>As an Admin, I want to reject books to be sold by customers, so that fake or invalid books are not listed for selling</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 20</t>
+  </si>
+  <si>
+    <t>US 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an Admin, I want to be able to add stock for a book, so that sellers can add stock to any books in their inventory. </t>
+  </si>
+  <si>
+    <t>Product Backlog Item 17</t>
+  </si>
+  <si>
+    <t>US 17</t>
+  </si>
+  <si>
+    <t>As an Admin, I want an option to choose how the CSV files are sorted, so I can see what the most popular item is.</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 16</t>
+  </si>
+  <si>
+    <t>US 16</t>
+  </si>
+  <si>
+    <t>As a Admin, I want to be able to download reports about user transactions in CSV format, so that I can review the sales history of the website</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 15</t>
+  </si>
+  <si>
+    <t>US 15</t>
+  </si>
+  <si>
+    <t>As a Admin, I want to be able to download reports about books in CSV format, so that I can review what books are available on the website</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 13</t>
+  </si>
+  <si>
+    <t>US 13</t>
+  </si>
+  <si>
+    <t>As an admin, I want to reject a pending registration from a business user so that they are unable to open a new business account.</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 12</t>
+  </si>
+  <si>
+    <t>US 12</t>
+  </si>
+  <si>
+    <t>As an admin, I want to approve a pending registration from a business user so that they can open a new business account.</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 42</t>
+  </si>
+  <si>
+    <t>US 42</t>
+  </si>
+  <si>
+    <t>As a Customer, I want to be able to view my transaction history, so that I can see all my recently bought books</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 25</t>
+  </si>
+  <si>
+    <t>US 25</t>
+  </si>
+  <si>
+    <t>As a business user, I want to be able to see all previous transactions, so I know how often transactions are happening.</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 5</t>
+  </si>
+  <si>
+    <t>US 5</t>
+  </si>
+  <si>
+    <t>As an Admin, I want to modify users, so that I can suspend/unsuspend users from their account.</t>
+  </si>
+  <si>
+    <t>As an Admin, I want to add new books, so that new items can be sold.</t>
+  </si>
+  <si>
+    <t>Product Backlog Item 29</t>
+  </si>
+  <si>
+    <t>US 29</t>
+  </si>
+  <si>
+    <t>As a business user, I want to be able to edit the books I am managing, so I can fix mistakes when originally created the book page.</t>
   </si>
   <si>
     <t>This worksheet is used for the Financial Report calculations and should remain hidden.</t>
@@ -101,7 +348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -307,7 +554,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,9 +617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -410,14 +654,149 @@
     <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Key Metric Header" xfId="5"/>
-    <cellStyle name="Key Metric Percentage" xfId="7"/>
-    <cellStyle name="Key Metric Value" xfId="6"/>
+    <cellStyle name="Key Metric Header" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Key Metric Percentage" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Key Metric Value" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -707,24 +1086,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J30"/>
+  <dimension ref="B1:J57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
-    <col min="4" max="4" width="10.125" customWidth="1"/>
-    <col min="5" max="5" width="33.375" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="71.5" customWidth="1"/>
     <col min="6" max="6" width="26.75" customWidth="1"/>
     <col min="7" max="9" width="21.75" customWidth="1"/>
     <col min="10" max="10" width="68" customWidth="1"/>
@@ -734,7 +1113,7 @@
     <row r="1" spans="2:10" ht="8.25" customHeight="1"/>
     <row r="2" spans="2:10" ht="38.25" customHeight="1">
       <c r="B2" s="19"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="20"/>
@@ -751,355 +1130,969 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="4" customFormat="1">
-      <c r="B5" s="26">
-        <v>1</v>
-      </c>
-      <c r="C5" s="27" t="s">
+    <row r="5" spans="2:10" s="4" customFormat="1" ht="38.25">
+      <c r="B5" s="25">
+        <v>54</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28" t="s">
+      <c r="E5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="21"/>
+      <c r="F5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="21"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="2:10" s="4" customFormat="1">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30">
-        <v>1.2</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="22"/>
+    <row r="6" spans="2:10" s="4" customFormat="1" ht="15">
+      <c r="B6" s="28">
+        <v>52</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I6" s="22"/>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="2:10" s="4" customFormat="1">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="22"/>
+    <row r="7" spans="2:10" s="4" customFormat="1" ht="15">
+      <c r="B7" s="28">
+        <v>46</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I7" s="22"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="2:10" s="4" customFormat="1">
-      <c r="B8" s="26"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="22"/>
+    <row r="8" spans="2:10" s="4" customFormat="1" ht="15">
+      <c r="B8" s="25">
+        <v>57</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="22"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="2:10" s="4" customFormat="1">
-      <c r="B9" s="29">
-        <v>2</v>
-      </c>
-      <c r="C9" s="27" t="s">
+    <row r="9" spans="2:10" s="4" customFormat="1" ht="25.5">
+      <c r="B9" s="28">
+        <v>43</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="30">
-        <v>2.1</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="24"/>
       <c r="I9" s="22"/>
       <c r="J9" s="16"/>
     </row>
-    <row r="10" spans="2:10" s="4" customFormat="1">
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="22"/>
+    <row r="10" spans="2:10" s="4" customFormat="1" ht="25.5">
+      <c r="B10" s="13">
+        <v>39</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="22"/>
       <c r="J10" s="16"/>
     </row>
-    <row r="11" spans="2:10" s="4" customFormat="1">
-      <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+    <row r="11" spans="2:10" s="4" customFormat="1" ht="30">
+      <c r="B11" s="13">
+        <v>38</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I11" s="22"/>
       <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="2:10" s="4" customFormat="1">
-      <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+    <row r="12" spans="2:10" s="4" customFormat="1" ht="30">
+      <c r="B12" s="13">
+        <v>37</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
+      <c r="H12" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="22"/>
       <c r="J12" s="16"/>
     </row>
-    <row r="13" spans="2:10" s="4" customFormat="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+    <row r="13" spans="2:10" s="4" customFormat="1" ht="30">
+      <c r="B13" s="12">
+        <v>62</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="22"/>
+      <c r="H13" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I13" s="22"/>
       <c r="J13" s="16"/>
     </row>
-    <row r="14" spans="2:10" s="4" customFormat="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+    <row r="14" spans="2:10" s="4" customFormat="1" ht="30">
+      <c r="B14" s="13">
+        <v>34</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="22"/>
+      <c r="H14" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I14" s="22"/>
       <c r="J14" s="16"/>
     </row>
-    <row r="15" spans="2:10" s="4" customFormat="1">
-      <c r="B15" s="13"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+    <row r="15" spans="2:10" s="4" customFormat="1" ht="30">
+      <c r="B15" s="13">
+        <v>33</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
+      <c r="H15" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I15" s="22"/>
       <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="2:10" s="4" customFormat="1">
-      <c r="B16" s="13"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+    <row r="16" spans="2:10" s="4" customFormat="1" ht="30">
+      <c r="B16" s="13">
+        <v>58</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
+      <c r="H16" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I16" s="22"/>
       <c r="J16" s="16"/>
     </row>
-    <row r="17" spans="2:10" s="4" customFormat="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+    <row r="17" spans="2:10" s="4" customFormat="1" ht="30">
+      <c r="B17" s="13">
+        <v>24</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="22"/>
+      <c r="H17" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I17" s="22"/>
       <c r="J17" s="16"/>
     </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+    <row r="18" spans="2:10" ht="15">
+      <c r="B18" s="12">
+        <v>23</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="22"/>
+      <c r="H18" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I18" s="22"/>
       <c r="J18" s="16"/>
     </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+    <row r="19" spans="2:10" ht="30">
+      <c r="B19" s="13">
+        <v>21</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I19" s="22"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="13"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+    <row r="20" spans="2:10" ht="30">
+      <c r="B20" s="13">
+        <v>19</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="22"/>
+      <c r="H20" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I20" s="22"/>
       <c r="J20" s="16"/>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="13"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+    <row r="21" spans="2:10" ht="30">
+      <c r="B21" s="13">
+        <v>20</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I21" s="22"/>
       <c r="J21" s="16"/>
     </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="13"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+    <row r="22" spans="2:10" ht="30">
+      <c r="B22" s="13">
+        <v>17</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="G22" s="23"/>
-      <c r="H22" s="22"/>
+      <c r="H22" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I22" s="22"/>
       <c r="J22" s="16"/>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+    <row r="23" spans="2:10" ht="30">
+      <c r="B23" s="12">
+        <v>16</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
+      <c r="H23" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I23" s="22"/>
       <c r="J23" s="16"/>
     </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="13"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+    <row r="24" spans="2:10" ht="30">
+      <c r="B24" s="13">
+        <v>15</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="G24" s="23"/>
-      <c r="H24" s="22"/>
+      <c r="H24" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I24" s="22"/>
       <c r="J24" s="16"/>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="13"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+    <row r="25" spans="2:10" ht="30">
+      <c r="B25" s="13">
+        <v>13</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="G25" s="23"/>
-      <c r="H25" s="22"/>
+      <c r="H25" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I25" s="22"/>
       <c r="J25" s="16"/>
     </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="13"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+    <row r="26" spans="2:10" ht="30">
+      <c r="B26" s="13">
+        <v>12</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="G26" s="23"/>
-      <c r="H26" s="22"/>
+      <c r="H26" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I26" s="22"/>
       <c r="J26" s="16"/>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="13"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+    <row r="27" spans="2:10" ht="30">
+      <c r="B27" s="13">
+        <v>42</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="G27" s="23"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="12"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="H27" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="2:10" ht="30">
+      <c r="B28" s="13">
+        <v>25</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="G28" s="23"/>
-      <c r="H28" s="22"/>
+      <c r="H28" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I28" s="22"/>
       <c r="J28" s="16"/>
     </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="13"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+    <row r="29" spans="2:10" ht="30">
+      <c r="B29" s="13">
+        <v>5</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="G29" s="23"/>
-      <c r="H29" s="22"/>
+      <c r="H29" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="I29" s="22"/>
       <c r="J29" s="16"/>
     </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="13"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+    <row r="30" spans="2:10" ht="15">
+      <c r="B30" s="13">
+        <v>62</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="G30" s="23"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="17"/>
-    </row>
+      <c r="H30" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="2:10" ht="30">
+      <c r="B31" s="13">
+        <v>29</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="2:10" ht="15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="2:10" ht="15">
+      <c r="B33" s="13"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="2:10" ht="15">
+      <c r="B34" s="13"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="2:10" ht="15">
+      <c r="B35" s="13"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="2:10" ht="15">
+      <c r="B36" s="13"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="2:10" ht="15">
+      <c r="B37" s="13"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="2:10" ht="15">
+      <c r="B38" s="13"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="2:10" ht="15">
+      <c r="B39" s="13"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="2:10" ht="15">
+      <c r="B40" s="13"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="2:10" ht="15">
+      <c r="B41" s="13"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="2:10" ht="15">
+      <c r="B42" s="13"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="2:10" ht="15">
+      <c r="B43" s="13"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="2:10" ht="15">
+      <c r="B44" s="13"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="2:10" ht="15">
+      <c r="B45" s="13"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="2:10" ht="15">
+      <c r="B46" s="13"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="2:10" ht="15">
+      <c r="B47" s="13"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="2:10" ht="15">
+      <c r="B48" s="13"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="2:10" ht="15">
+      <c r="B49" s="13"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="2:10" ht="15">
+      <c r="B50" s="13"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="2:10" ht="15">
+      <c r="B51" s="13"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="2:10" ht="15">
+      <c r="B52" s="13"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="2:10" ht="15">
+      <c r="B53" s="13"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="2:10" ht="15">
+      <c r="B54" s="13"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="2:10" ht="15">
+      <c r="B55" s="13"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="2:10" ht="15"/>
+    <row r="57" spans="2:10" ht="15"/>
   </sheetData>
-  <conditionalFormatting sqref="B5:J30">
-    <cfRule type="expression" dxfId="0" priority="12">
+  <conditionalFormatting sqref="H32:H41 B32:D55 G27:J31 B5:J5 E6:J26 D6:D31 B6:C9 B10:B26 C10:C31">
+    <cfRule type="expression" dxfId="9" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:F41 F32">
+    <cfRule type="expression" dxfId="8" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G41">
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:J41">
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:F55">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:H55">
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:J55">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:B31">
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F31">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1110,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1122,17 +2115,17 @@
   <sheetData>
     <row r="1" spans="1:8" s="8" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="9" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1">
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="e">
         <f>SelectedYear</f>
@@ -1145,7 +2138,7 @@
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="e">
         <f>C3-1</f>
@@ -1159,7 +2152,7 @@
     <row r="5" spans="1:8" ht="19.5" customHeight="1"/>
     <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="e">
         <f ca="1">MATCH(C7,lstYears,0)+1</f>
@@ -1184,7 +2177,7 @@
     </row>
     <row r="7" spans="1:8" ht="18.75" thickBot="1">
       <c r="B7" s="7" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C7" s="10" t="e">
         <f>D7-1</f>
@@ -1381,7 +2374,7 @@
     <row r="13" spans="1:8" ht="13.5" thickBot="1"/>
     <row r="14" spans="1:8" ht="18.75" thickBot="1">
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1397,26 +2390,26 @@
       </c>
       <c r="B15" t="str">
         <f>IF('Product Backlog'!C5=0,"",'Product Backlog'!C5)</f>
-        <v>[Product backlog item 1]</v>
+        <v>Product Backlog Item 54</v>
       </c>
       <c r="C15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A15,C$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A15,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A15,D$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A15,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A15,E$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A15,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A15,F$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A15,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A15,G$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A15,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1427,26 +2420,26 @@
       </c>
       <c r="B16" t="str">
         <f>IF('Product Backlog'!C6=0,"",'Product Backlog'!C6)</f>
-        <v/>
+        <v>Product Backlog Item 52</v>
       </c>
       <c r="C16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A16,C$6),NA()))</f>
+        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A16,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A16,D$6),NA()))</f>
+        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A16,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A16,E$6),NA()))</f>
+        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A16,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A16,F$6),NA()))</f>
+        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A16,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A16,G$6),NA()))</f>
+        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A16,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1457,26 +2450,26 @@
       </c>
       <c r="B17" t="str">
         <f>IF('Product Backlog'!C7=0,"",'Product Backlog'!C7)</f>
-        <v/>
+        <v>Product Backlog Item 46</v>
       </c>
       <c r="C17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A17,C$6),NA()))</f>
+        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A17,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A17,D$6),NA()))</f>
+        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A17,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A17,E$6),NA()))</f>
+        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A17,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A17,F$6),NA()))</f>
+        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A17,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A17,G$6),NA()))</f>
+        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A17,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1490,23 +2483,23 @@
         <v>#REF!</v>
       </c>
       <c r="C18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A18,C$6),NA()))</f>
+        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A18,C$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="D18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A18,D$6),NA()))</f>
+        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A18,D$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="E18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A18,E$6),NA()))</f>
+        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A18,E$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="F18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A18,F$6),NA()))</f>
+        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A18,F$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="G18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A18,G$6),NA()))</f>
+        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A18,G$6),NA()))</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -1520,23 +2513,23 @@
         <v>#REF!</v>
       </c>
       <c r="C19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A19,C$6),NA()))</f>
+        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A19,C$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="D19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A19,D$6),NA()))</f>
+        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A19,D$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="E19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A19,E$6),NA()))</f>
+        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A19,E$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="F19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A19,F$6),NA()))</f>
+        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A19,F$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="G19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A19,G$6),NA()))</f>
+        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A19,G$6),NA()))</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -1547,26 +2540,26 @@
       </c>
       <c r="B20" t="str">
         <f>IF('Product Backlog'!C8=0,"",'Product Backlog'!C8)</f>
-        <v/>
+        <v>Product Backlog Item 57</v>
       </c>
       <c r="C20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A20,C$6),NA()))</f>
+        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A20,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A20,D$6),NA()))</f>
+        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A20,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A20,E$6),NA()))</f>
+        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A20,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A20,F$6),NA()))</f>
+        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A20,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A20,G$6),NA()))</f>
+        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A20,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1577,26 +2570,26 @@
       </c>
       <c r="B21" t="str">
         <f>IF('Product Backlog'!C9=0,"",'Product Backlog'!C9)</f>
-        <v>[Product backlog item 2]</v>
+        <v>Product Backlog Item 43</v>
       </c>
       <c r="C21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A21,C$6),NA()))</f>
+        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A21,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A21,D$6),NA()))</f>
+        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A21,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A21,E$6),NA()))</f>
+        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A21,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A21,F$6),NA()))</f>
+        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A21,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A21,G$6),NA()))</f>
+        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A21,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1605,29 +2598,29 @@
         <f>ROWS($B$15:B22)</f>
         <v>8</v>
       </c>
-      <c r="B22" t="str">
-        <f>IF('Product Backlog'!C10=0,"",'Product Backlog'!C10)</f>
-        <v/>
+      <c r="B22" t="e">
+        <f>IF('Product Backlog'!#REF!=0,"",'Product Backlog'!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A22,C$6),NA()))</f>
-        <v>#N/A</v>
+        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A22,C$6),NA()))</f>
+        <v>#REF!</v>
       </c>
       <c r="D22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A22,D$6),NA()))</f>
-        <v>#N/A</v>
+        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A22,D$6),NA()))</f>
+        <v>#REF!</v>
       </c>
       <c r="E22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A22,E$6),NA()))</f>
-        <v>#N/A</v>
+        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A22,E$6),NA()))</f>
+        <v>#REF!</v>
       </c>
       <c r="F22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A22,F$6),NA()))</f>
-        <v>#N/A</v>
+        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A22,F$6),NA()))</f>
+        <v>#REF!</v>
       </c>
       <c r="G22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A22,G$6),NA()))</f>
-        <v>#N/A</v>
+        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A22,G$6),NA()))</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="19.5" customHeight="1">
@@ -1636,27 +2629,27 @@
         <v>9</v>
       </c>
       <c r="B23" t="str">
-        <f>IF('Product Backlog'!C11=0,"",'Product Backlog'!C11)</f>
-        <v/>
+        <f>IF('Product Backlog'!C10=0,"",'Product Backlog'!C10)</f>
+        <v>Product Backlog Item 39</v>
       </c>
       <c r="C23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A23,C$6),NA()))</f>
+        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A23,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A23,D$6),NA()))</f>
+        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A23,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A23,E$6),NA()))</f>
+        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A23,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A23,F$6),NA()))</f>
+        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A23,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A23,G$6),NA()))</f>
+        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A23,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1666,27 +2659,27 @@
         <v>10</v>
       </c>
       <c r="B24" t="str">
-        <f>IF('Product Backlog'!C12=0,"",'Product Backlog'!C12)</f>
-        <v/>
+        <f>IF('Product Backlog'!C11=0,"",'Product Backlog'!C11)</f>
+        <v>Product Backlog Item 38</v>
       </c>
       <c r="C24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A24,C$6),NA()))</f>
+        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A24,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A24,D$6),NA()))</f>
+        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A24,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A24,E$6),NA()))</f>
+        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A24,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A24,F$6),NA()))</f>
+        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A24,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A24,G$6),NA()))</f>
+        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A24,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1697,26 +2690,26 @@
       </c>
       <c r="B25" t="str">
         <f>IF('Product Backlog'!C13=0,"",'Product Backlog'!C13)</f>
-        <v/>
+        <v>Product Backlog Item 62</v>
       </c>
       <c r="C25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A25,C$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A25,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A25,D$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A25,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A25,E$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A25,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A25,F$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A25,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A25,G$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A25,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1727,26 +2720,26 @@
       </c>
       <c r="B26" t="str">
         <f>IF('Product Backlog'!C14=0,"",'Product Backlog'!C14)</f>
-        <v/>
+        <v>Product Backlog Item 34</v>
       </c>
       <c r="C26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A26,C$6),NA()))</f>
+        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A26,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A26,D$6),NA()))</f>
+        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A26,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A26,E$6),NA()))</f>
+        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A26,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A26,F$6),NA()))</f>
+        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A26,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A26,G$6),NA()))</f>
+        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A26,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1757,26 +2750,26 @@
       </c>
       <c r="B27" t="str">
         <f>IF('Product Backlog'!C15=0,"",'Product Backlog'!C15)</f>
-        <v/>
+        <v>Product Backlog Item 33</v>
       </c>
       <c r="C27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A27,C$6),NA()))</f>
+        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A27,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A27,D$6),NA()))</f>
+        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A27,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A27,E$6),NA()))</f>
+        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A27,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A27,F$6),NA()))</f>
+        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A27,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A27,G$6),NA()))</f>
+        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A27,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1787,26 +2780,26 @@
       </c>
       <c r="B28" t="str">
         <f>IF('Product Backlog'!C16=0,"",'Product Backlog'!C16)</f>
-        <v/>
+        <v>Product Backlog Item 58</v>
       </c>
       <c r="C28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A28,C$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A28,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A28,D$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A28,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A28,E$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A28,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A28,F$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A28,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A28,G$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A28,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1817,26 +2810,26 @@
       </c>
       <c r="B29" t="str">
         <f>IF('Product Backlog'!C17=0,"",'Product Backlog'!C17)</f>
-        <v/>
+        <v>Product Backlog Item 24</v>
       </c>
       <c r="C29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A29,C$6),NA()))</f>
+        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A29,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A29,D$6),NA()))</f>
+        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A29,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A29,E$6),NA()))</f>
+        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A29,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A29,F$6),NA()))</f>
+        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A29,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A29,G$6),NA()))</f>
+        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A29,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1847,26 +2840,26 @@
       </c>
       <c r="B30" t="str">
         <f>IF('Product Backlog'!C18=0,"",'Product Backlog'!C18)</f>
-        <v/>
+        <v>Product Backlog Item 23</v>
       </c>
       <c r="C30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A30,C$6),NA()))</f>
+        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A30,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A30,D$6),NA()))</f>
+        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A30,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A30,E$6),NA()))</f>
+        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A30,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A30,F$6),NA()))</f>
+        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A30,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A30,G$6),NA()))</f>
+        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A30,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1877,26 +2870,26 @@
       </c>
       <c r="B31" t="str">
         <f>IF('Product Backlog'!C19=0,"",'Product Backlog'!C19)</f>
-        <v/>
+        <v>Product Backlog Item 21</v>
       </c>
       <c r="C31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A31,C$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A31,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A31,D$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A31,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A31,E$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A31,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A31,F$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A31,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A31,G$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A31,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1907,26 +2900,26 @@
       </c>
       <c r="B32" t="str">
         <f>IF('Product Backlog'!C20=0,"",'Product Backlog'!C20)</f>
-        <v/>
+        <v>Product Backlog Item 19</v>
       </c>
       <c r="C32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A32,C$6),NA()))</f>
+        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A32,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A32,D$6),NA()))</f>
+        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A32,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A32,E$6),NA()))</f>
+        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A32,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A32,F$6),NA()))</f>
+        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A32,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A32,G$6),NA()))</f>
+        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A32,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1937,26 +2930,26 @@
       </c>
       <c r="B33" t="str">
         <f>IF('Product Backlog'!C21=0,"",'Product Backlog'!C21)</f>
-        <v/>
+        <v>Product Backlog Item 20</v>
       </c>
       <c r="C33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A33,C$6),NA()))</f>
+        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A33,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A33,D$6),NA()))</f>
+        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A33,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A33,E$6),NA()))</f>
+        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A33,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A33,F$6),NA()))</f>
+        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A33,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A33,G$6),NA()))</f>
+        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A33,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1967,26 +2960,26 @@
       </c>
       <c r="B34" t="str">
         <f>IF('Product Backlog'!C22=0,"",'Product Backlog'!C22)</f>
-        <v/>
+        <v>Product Backlog Item 17</v>
       </c>
       <c r="C34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A34,C$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A34,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A34,D$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A34,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A34,E$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A34,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A34,F$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A34,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A34,G$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A34,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1997,26 +2990,26 @@
       </c>
       <c r="B35" t="str">
         <f>IF('Product Backlog'!C23=0,"",'Product Backlog'!C23)</f>
-        <v/>
+        <v>Product Backlog Item 16</v>
       </c>
       <c r="C35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A35,C$6),NA()))</f>
+        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A35,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A35,D$6),NA()))</f>
+        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A35,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A35,E$6),NA()))</f>
+        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A35,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A35,F$6),NA()))</f>
+        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A35,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A35,G$6),NA()))</f>
+        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A35,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2027,26 +3020,26 @@
       </c>
       <c r="B36" t="str">
         <f>IF('Product Backlog'!C24=0,"",'Product Backlog'!C24)</f>
-        <v/>
+        <v>Product Backlog Item 15</v>
       </c>
       <c r="C36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A36,C$6),NA()))</f>
+        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A36,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A36,D$6),NA()))</f>
+        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A36,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A36,E$6),NA()))</f>
+        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A36,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A36,F$6),NA()))</f>
+        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A36,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A36,G$6),NA()))</f>
+        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A36,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2057,26 +3050,26 @@
       </c>
       <c r="B37" t="str">
         <f>IF('Product Backlog'!C25=0,"",'Product Backlog'!C25)</f>
-        <v/>
+        <v>Product Backlog Item 13</v>
       </c>
       <c r="C37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A37,C$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A37,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A37,D$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A37,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A37,E$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A37,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A37,F$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A37,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A37,G$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A37,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2087,26 +3080,26 @@
       </c>
       <c r="B38" t="str">
         <f>IF('Product Backlog'!C26=0,"",'Product Backlog'!C26)</f>
-        <v/>
+        <v>Product Backlog Item 12</v>
       </c>
       <c r="C38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A38,C$6),NA()))</f>
+        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A38,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A38,D$6),NA()))</f>
+        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A38,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A38,E$6),NA()))</f>
+        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A38,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A38,F$6),NA()))</f>
+        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A38,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A38,G$6),NA()))</f>
+        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A38,G$6),NA()))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -2115,33 +3108,232 @@
         <f>ROWS($B$15:B39)</f>
         <v>25</v>
       </c>
-      <c r="B39" t="str">
-        <f>IF('Product Backlog'!C27=0,"",'Product Backlog'!C27)</f>
-        <v/>
+      <c r="B39" t="e">
+        <f>IF('Product Backlog'!#REF!=0,"",'Product Backlog'!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A39,C$6),NA()))</f>
-        <v>#N/A</v>
+        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A39,C$6),NA()))</f>
+        <v>#REF!</v>
       </c>
       <c r="D39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A39,D$6),NA()))</f>
-        <v>#N/A</v>
+        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A39,D$6),NA()))</f>
+        <v>#REF!</v>
       </c>
       <c r="E39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A39,E$6),NA()))</f>
-        <v>#N/A</v>
+        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A39,E$6),NA()))</f>
+        <v>#REF!</v>
       </c>
       <c r="F39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A39,F$6),NA()))</f>
-        <v>#N/A</v>
+        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A39,F$6),NA()))</f>
+        <v>#REF!</v>
       </c>
       <c r="G39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$27,$A39,G$6),NA()))</f>
-        <v>#N/A</v>
+        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A39,G$6),NA()))</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD6B7AE05836784DB9DDF79838E135B0" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56f2e1d40083bc882c879fd5f0e30a2e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1977bc59-59cf-46de-bb10-abef6dc3255c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="917e586b705a352b9e3a8a8ba2891683" ns2:_="">
+    <xsd:import namespace="1977bc59-59cf-46de-bb10-abef6dc3255c"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1977bc59-59cf-46de-bb10-abef6dc3255c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E11F8907-776F-44AD-B681-425AE9F3D166}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C82FB4F2-286A-40A1-8011-220F672FEF88}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C28FE173-FBF3-44D6-AF77-81820CDE339A}"/>
 </file>
--- a/Scrum/Milestone 2/Sprint 2 Backlog.xlsx
+++ b/Scrum/Milestone 2/Sprint 2 Backlog.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shekhar\Desktop\reafavour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\Desktop\SEPT\Scrum\Milestone 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="657" documentId="11_3CFCC9262FC70715073B353488CDA3633207FD26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48546DE3-526A-45F8-9B8B-1216F9530957}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804EEF33-92C7-4D13-85E3-1E6418BCCB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="lstMetrics">OFFSET('Product Backlog'!$C$5:$C$26,0,0,COUNTA('Product Backlog'!$C$5:$C$26))</definedName>
+    <definedName name="lstMetrics">OFFSET('Product Backlog'!$C$5:$C$30,0,0,COUNTA('Product Backlog'!$C$5:$C$30))</definedName>
     <definedName name="lstYears">OFFSET('Product Backlog'!$C$4:$J$4,0,1,1,COUNTA('Product Backlog'!$C$4:$J$4)-1)</definedName>
     <definedName name="SelectedYear">#REF!</definedName>
   </definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="67">
   <si>
     <t>SPRINT #2 BACKLOG</t>
   </si>
@@ -72,15 +72,6 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>Product Backlog Item 54</t>
-  </si>
-  <si>
-    <t>US 54</t>
-  </si>
-  <si>
-    <t>As a customer, I want to be able to filter my search, so I can find the items I am interested in more easily.</t>
-  </si>
-  <si>
     <t>Jared</t>
   </si>
   <si>
@@ -90,114 +81,54 @@
     <t>Product Backlog Item 52</t>
   </si>
   <si>
-    <t>US 52</t>
-  </si>
-  <si>
     <t>As a customer, I want to view my profile page so I can change my password</t>
   </si>
   <si>
     <t>Aili</t>
   </si>
   <si>
-    <t>Product Backlog Item 46</t>
-  </si>
-  <si>
-    <t>US 46</t>
-  </si>
-  <si>
-    <t>As a customer, I want to add a review to a book I purchased, so I can share my opinion.</t>
-  </si>
-  <si>
     <t>Carl</t>
   </si>
   <si>
-    <t>Product Backlog Item 57</t>
-  </si>
-  <si>
-    <t>US 57</t>
-  </si>
-  <si>
-    <t>As a customer, I want to add a review to a user who sold an item to me, so I can rate the seller.</t>
-  </si>
-  <si>
     <t>Product Backlog Item 43</t>
   </si>
   <si>
-    <t>US 43</t>
-  </si>
-  <si>
     <t>As a Customer, I want to be able to view my order status, so that I can see the current status of my order</t>
   </si>
   <si>
     <t>Product Backlog Item 39</t>
   </si>
   <si>
-    <t>US 39</t>
-  </si>
-  <si>
     <t>As a customer, I want to be able to sort my search results so that my search query starts from the lowest cost item.</t>
   </si>
   <si>
-    <t>Product Backlog Item 38</t>
-  </si>
-  <si>
-    <t>US 38</t>
-  </si>
-  <si>
-    <t>As a customer, I want to be able to filter my search results so that I can view only used books for sale.</t>
-  </si>
-  <si>
-    <t>Product Backlog Item 37</t>
-  </si>
-  <si>
-    <t>US 37</t>
-  </si>
-  <si>
-    <t>As a customer, I want to be able to filter my search results so that I can view only new books for sale.</t>
-  </si>
-  <si>
     <t>Product Backlog Item 62</t>
   </si>
   <si>
-    <t>US 62</t>
-  </si>
-  <si>
     <t>As a customer, I want to be able to search for books in the catalog by the book's ISBN so that I can find books with a specific ISBN</t>
   </si>
   <si>
     <t>Product Backlog Item 34</t>
   </si>
   <si>
-    <t>US 34</t>
-  </si>
-  <si>
     <t>As a customer, I want to be able to search for books in the catalog by the title of the book so that I can find books with a specific title or series title</t>
   </si>
   <si>
     <t>Product Backlog Item 33</t>
   </si>
   <si>
-    <t>US 33</t>
-  </si>
-  <si>
     <t>As a customer, I want to be able to search for books in the catalog by the name of the author so that I can find books written by a specific author</t>
   </si>
   <si>
     <t>Product Backlog Item 58</t>
   </si>
   <si>
-    <t>US 58</t>
-  </si>
-  <si>
     <t>As a customer, I want to be able to search for books in the catalog by the category of the book so that I can find books with a specific category</t>
   </si>
   <si>
     <t>Product Backlog Item 24</t>
   </si>
   <si>
-    <t>US 24</t>
-  </si>
-  <si>
     <t>As a business user, I want to export a CSV of transactions, so I know if the business is making a profit</t>
   </si>
   <si>
@@ -207,18 +138,12 @@
     <t>Product Backlog Item 23</t>
   </si>
   <si>
-    <t>US 23</t>
-  </si>
-  <si>
     <t>As a business user, I want to be able to upload an item to sell, so that an admin can approve it.</t>
   </si>
   <si>
     <t>Product Backlog Item 21</t>
   </si>
   <si>
-    <t>US 21</t>
-  </si>
-  <si>
     <t>As a business user, I want to be able to register a business account so that I can sell and rent my books to customers.</t>
   </si>
   <si>
@@ -228,90 +153,60 @@
     <t>Product Backlog Item 19</t>
   </si>
   <si>
-    <t>US 19</t>
-  </si>
-  <si>
     <t>As an Admin, I want to reject books to be sold by customers, so that fake or invalid books are not listed for selling</t>
   </si>
   <si>
     <t>Product Backlog Item 20</t>
   </si>
   <si>
-    <t>US 20</t>
-  </si>
-  <si>
     <t xml:space="preserve">As an Admin, I want to be able to add stock for a book, so that sellers can add stock to any books in their inventory. </t>
   </si>
   <si>
     <t>Product Backlog Item 17</t>
   </si>
   <si>
-    <t>US 17</t>
-  </si>
-  <si>
     <t>As an Admin, I want an option to choose how the CSV files are sorted, so I can see what the most popular item is.</t>
   </si>
   <si>
     <t>Product Backlog Item 16</t>
   </si>
   <si>
-    <t>US 16</t>
-  </si>
-  <si>
     <t>As a Admin, I want to be able to download reports about user transactions in CSV format, so that I can review the sales history of the website</t>
   </si>
   <si>
     <t>Product Backlog Item 15</t>
   </si>
   <si>
-    <t>US 15</t>
-  </si>
-  <si>
     <t>As a Admin, I want to be able to download reports about books in CSV format, so that I can review what books are available on the website</t>
   </si>
   <si>
     <t>Product Backlog Item 13</t>
   </si>
   <si>
-    <t>US 13</t>
-  </si>
-  <si>
     <t>As an admin, I want to reject a pending registration from a business user so that they are unable to open a new business account.</t>
   </si>
   <si>
     <t>Product Backlog Item 12</t>
   </si>
   <si>
-    <t>US 12</t>
-  </si>
-  <si>
     <t>As an admin, I want to approve a pending registration from a business user so that they can open a new business account.</t>
   </si>
   <si>
     <t>Product Backlog Item 42</t>
   </si>
   <si>
-    <t>US 42</t>
-  </si>
-  <si>
     <t>As a Customer, I want to be able to view my transaction history, so that I can see all my recently bought books</t>
   </si>
   <si>
     <t>Product Backlog Item 25</t>
   </si>
   <si>
-    <t>US 25</t>
-  </si>
-  <si>
     <t>As a business user, I want to be able to see all previous transactions, so I know how often transactions are happening.</t>
   </si>
   <si>
     <t>Product Backlog Item 5</t>
   </si>
   <si>
-    <t>US 5</t>
-  </si>
-  <si>
     <t>As an Admin, I want to modify users, so that I can suspend/unsuspend users from their account.</t>
   </si>
   <si>
@@ -321,9 +216,6 @@
     <t>Product Backlog Item 29</t>
   </si>
   <si>
-    <t>US 29</t>
-  </si>
-  <si>
     <t>As a business user, I want to be able to edit the books I am managing, so I can fix mistakes when originally created the book page.</t>
   </si>
   <si>
@@ -343,6 +235,12 @@
   </si>
   <si>
     <t>All Metrics (works up to 25 metrics)</t>
+  </si>
+  <si>
+    <t>Add front-end functionality</t>
+  </si>
+  <si>
+    <t>Add back-end functionality</t>
   </si>
 </sst>
 </file>
@@ -353,7 +251,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.34998626667073579"/>
@@ -554,7 +452,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -608,20 +506,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -649,6 +538,10 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
@@ -661,7 +554,787 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1091,18 +1764,18 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J57"/>
+  <dimension ref="B1:J70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.75" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="11" customWidth="1"/>
     <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="71.5" customWidth="1"/>
     <col min="6" max="6" width="26.75" customWidth="1"/>
     <col min="7" max="9" width="21.75" customWidth="1"/>
@@ -1110,10 +1783,10 @@
     <col min="11" max="11" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="8.25" customHeight="1"/>
-    <row r="2" spans="2:10" ht="38.25" customHeight="1">
+    <row r="1" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B2" s="19"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="20"/>
@@ -1121,7 +1794,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="6" customHeight="1">
+    <row r="3" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.75">
       <c r="B3" s="19"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1129,970 +1802,1685 @@
       <c r="F3" s="18"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:10" s="4" customFormat="1" ht="38.25">
+    <row r="5" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25">
-        <v>54</v>
-      </c>
-      <c r="C5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="23">
+        <v>52.1</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23">
+        <v>52.2</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="25"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23">
+        <v>52.3</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="2:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="25">
+        <v>43</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="23">
+        <v>43.1</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23">
+        <v>43.2</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23">
+        <v>43.3</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="2:10" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="13">
+        <v>39</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="23">
+        <v>39.1</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="30" t="s">
+      <c r="G11" s="22"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="2:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
+        <v>62</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="23">
+        <v>62.1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23">
+        <v>62.2</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23">
+        <v>62.3</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="2:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="B17" s="13">
+        <v>34</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="23">
+        <v>34.1</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="2:10" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+      <c r="B20" s="13">
+        <v>33</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="23">
+        <v>33.1</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B23" s="13">
+        <v>58</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="23">
+        <v>58.1</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23">
+        <v>58.2</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23">
+        <v>58.3</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B26" s="13">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="23">
+        <v>24.1</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23">
+        <v>24.2</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23">
+        <v>24.3</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B29" s="12">
+        <v>23</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="23">
+        <v>23.1</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="2:10" s="4" customFormat="1" ht="15">
-      <c r="B6" s="28">
-        <v>52</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="30" t="s">
+      <c r="G29" s="22"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23">
+        <v>23.2</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="2:10" s="4" customFormat="1" ht="15">
-      <c r="B7" s="28">
-        <v>46</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="G30" s="22"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23">
+        <v>23.3</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B32" s="13">
+        <v>21</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="23">
+        <v>21.1</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23">
+        <v>21.2</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23">
+        <v>21.3</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B35" s="13">
         <v>19</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="2:10" s="4" customFormat="1" ht="15">
-      <c r="B8" s="25">
-        <v>57</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" s="4" customFormat="1" ht="25.5">
-      <c r="B9" s="28">
-        <v>43</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="2:10" s="4" customFormat="1" ht="25.5">
-      <c r="B10" s="13">
-        <v>39</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="2:10" s="4" customFormat="1" ht="30">
-      <c r="B11" s="13">
-        <v>38</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="2:10" s="4" customFormat="1" ht="30">
-      <c r="B12" s="13">
+      <c r="C35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="23">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="F35" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="2:10" s="4" customFormat="1" ht="30">
-      <c r="B13" s="12">
-        <v>62</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="2:10" s="4" customFormat="1" ht="30">
-      <c r="B14" s="13">
-        <v>34</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="2:10" s="4" customFormat="1" ht="30">
-      <c r="B15" s="13">
-        <v>33</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="2:10" s="4" customFormat="1" ht="30">
-      <c r="B16" s="13">
-        <v>58</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="2:10" s="4" customFormat="1" ht="30">
-      <c r="B17" s="13">
-        <v>24</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="2:10" ht="15">
-      <c r="B18" s="12">
-        <v>23</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="2:10" ht="30">
-      <c r="B19" s="13">
-        <v>21</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="2:10" ht="30">
-      <c r="B20" s="13">
-        <v>19</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="2:10" ht="30">
-      <c r="B21" s="13">
-        <v>20</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="2:10" ht="30">
-      <c r="B22" s="13">
-        <v>17</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="2:10" ht="30">
-      <c r="B23" s="12">
-        <v>16</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="2:10" ht="30">
-      <c r="B24" s="13">
-        <v>15</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="2:10" ht="30">
-      <c r="B25" s="13">
-        <v>13</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="2:10" ht="30">
-      <c r="B26" s="13">
-        <v>12</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="2:10" ht="30">
-      <c r="B27" s="13">
-        <v>42</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="23"/>
-      <c r="H27" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="2:10" ht="30">
-      <c r="B28" s="13">
-        <v>25</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="2:10" ht="30">
-      <c r="B29" s="13">
-        <v>5</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="16"/>
-    </row>
-    <row r="30" spans="2:10" ht="15">
-      <c r="B30" s="13">
-        <v>62</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="16"/>
-    </row>
-    <row r="31" spans="2:10" ht="30">
-      <c r="B31" s="13">
-        <v>29</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="2:10" ht="15">
-      <c r="B32" s="13"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="2:10" ht="15">
-      <c r="B33" s="13"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="2:10" ht="15">
-      <c r="B34" s="13"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="2:10" ht="15">
-      <c r="B35" s="13"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="2:10" ht="15">
+      <c r="G35" s="22"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="13"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="D36" s="15">
+        <v>19.2</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="G36" s="15"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="15"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J36" s="15"/>
     </row>
-    <row r="37" spans="2:10" ht="15">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="13"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="D37" s="15">
+        <v>19.3</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="G37" s="15"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="15"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="2:10" ht="15">
-      <c r="B38" s="13"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="15"/>
+    <row r="38" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B38" s="13">
+        <v>20</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="23">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J38" s="15"/>
     </row>
-    <row r="39" spans="2:10" ht="15">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="15"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23">
+        <v>20.2</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J39" s="15"/>
     </row>
-    <row r="40" spans="2:10" ht="15">
-      <c r="B40" s="13"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="15"/>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23">
+        <v>20.3</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J40" s="15"/>
     </row>
-    <row r="41" spans="2:10" ht="15">
-      <c r="B41" s="13"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="15"/>
+    <row r="41" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B41" s="13">
+        <v>17</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="23">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J41" s="15"/>
     </row>
-    <row r="42" spans="2:10" ht="15">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="13"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23">
+        <v>17.2</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J42" s="15"/>
     </row>
-    <row r="43" spans="2:10" ht="15">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="13"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23">
+        <v>17.3</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J43" s="15"/>
     </row>
-    <row r="44" spans="2:10" ht="15">
-      <c r="B44" s="13"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+    <row r="44" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B44" s="12">
+        <v>16</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="23">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J44" s="15"/>
     </row>
-    <row r="45" spans="2:10" ht="15">
-      <c r="B45" s="13"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23">
+        <v>16.2</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J45" s="15"/>
     </row>
-    <row r="46" spans="2:10" ht="15">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="13"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23">
+        <v>16.3</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J46" s="15"/>
     </row>
-    <row r="47" spans="2:10" ht="15">
-      <c r="B47" s="13"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
+    <row r="47" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B47" s="13">
+        <v>15</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="23">
+        <v>15.1</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J47" s="15"/>
     </row>
-    <row r="48" spans="2:10" ht="15">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" s="13"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23">
+        <v>15.2</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J48" s="15"/>
     </row>
-    <row r="49" spans="2:10" ht="15">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" s="13"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23">
+        <v>15.3</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J49" s="15"/>
     </row>
-    <row r="50" spans="2:10" ht="15">
-      <c r="B50" s="13"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
+    <row r="50" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B50" s="13">
+        <v>13</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="23">
+        <v>13.1</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="2:10" ht="15">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="13"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23">
+        <v>13.2</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J51" s="15"/>
     </row>
-    <row r="52" spans="2:10" ht="15">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" s="13"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23">
+        <v>13.3</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="22"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J52" s="15"/>
     </row>
-    <row r="53" spans="2:10" ht="15">
-      <c r="B53" s="13"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
+    <row r="53" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B53" s="13">
+        <v>12</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="23">
+        <v>12.1</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J53" s="15"/>
     </row>
-    <row r="54" spans="2:10" ht="15">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" s="13"/>
       <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
+      <c r="D54" s="15">
+        <v>12.2</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
+      <c r="I54" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J54" s="15"/>
     </row>
-    <row r="55" spans="2:10" ht="15">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" s="13"/>
       <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
+      <c r="D55" s="15">
+        <v>12.3</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
+      <c r="I55" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="J55" s="15"/>
     </row>
-    <row r="56" spans="2:10" ht="15"/>
-    <row r="57" spans="2:10" ht="15"/>
+    <row r="56" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B56" s="13">
+        <v>42</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="23">
+        <v>42.1</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="22"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23">
+        <v>42.2</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="22"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="13"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23">
+        <v>42.3</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="22"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B59" s="13">
+        <v>25</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="23">
+        <v>25.1</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59" s="22"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="13"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23">
+        <v>25.2</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="13"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23">
+        <v>25.3</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="15"/>
+    </row>
+    <row r="62" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B62" s="13">
+        <v>5</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="22"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="15"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="13"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23">
+        <v>5.2</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="22"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64" s="13"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23">
+        <v>5.3</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="22"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" s="13">
+        <v>62</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="23">
+        <v>62.1</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" s="22"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="15"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="13"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23">
+        <v>62.2</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="22"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="15"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B67" s="13"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23">
+        <v>62.3</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="22"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="15"/>
+    </row>
+    <row r="68" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B68" s="13">
+        <v>29</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="23">
+        <v>29.1</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="22"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="15"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B69" s="13"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23">
+        <v>29.2</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="22"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="15"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B70" s="13"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23">
+        <v>29.3</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="22"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="15"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H32:H41 B32:D55 G27:J31 B5:J5 E6:J26 D6:D31 B6:C9 B10:B26 C10:C31">
-    <cfRule type="expression" dxfId="9" priority="28">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:F41 F32">
-    <cfRule type="expression" dxfId="8" priority="15">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G41">
-    <cfRule type="expression" dxfId="7" priority="14">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I32:J41">
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42:F55">
-    <cfRule type="expression" dxfId="5" priority="11">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H55">
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:J55">
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B31">
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F31">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
-    <cfRule type="expression" dxfId="0" priority="6">
+  <conditionalFormatting sqref="H36:H37 B36:D37 B5:J5 B54:D55 C30:D31 B30:D30 B12:C13 C33:D34 J6:J35 I6:I70 E12:E13 B15:E16 B18:E19 B21:E22 B24:E25 G29:H35 G15:H25 G12:H13 B6:H10">
+    <cfRule type="expression" dxfId="61" priority="89">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G37">
+    <cfRule type="expression" dxfId="60" priority="75">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:J45">
+    <cfRule type="expression" dxfId="59" priority="73">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:H55">
+    <cfRule type="expression" dxfId="58" priority="71">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46:J58">
+    <cfRule type="expression" dxfId="57" priority="70">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31 B33:B34">
+    <cfRule type="expression" dxfId="56" priority="69">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:H11 B12:C12 E12 D12:D13 G12:H12 F12:F13">
+    <cfRule type="expression" dxfId="55" priority="61">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="54" priority="60">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:H9 F9:F10">
+    <cfRule type="expression" dxfId="53" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:H38 B42:D43 B45:D46 B48:D49 B51:D52 B39:D40 G41:H53 F39:H40">
+    <cfRule type="expression" dxfId="52" priority="57">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49 B51:B52">
+    <cfRule type="expression" dxfId="51" priority="56">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:D28 G26:H28">
+    <cfRule type="expression" dxfId="50" priority="54">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:H26">
+    <cfRule type="expression" dxfId="49" priority="53">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:H14 F15:F16">
+    <cfRule type="expression" dxfId="48" priority="52">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:H14 F15:F16">
+    <cfRule type="expression" dxfId="47" priority="51">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:F17 F18:F19">
+    <cfRule type="expression" dxfId="46" priority="50">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:F20 F21:F22">
+    <cfRule type="expression" dxfId="45" priority="49">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:F23 F24:F25">
+    <cfRule type="expression" dxfId="44" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F26 F27:F28">
+    <cfRule type="expression" dxfId="43" priority="47">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:F29 F30:F31">
+    <cfRule type="expression" dxfId="42" priority="46">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:F32 F33:F34">
+    <cfRule type="expression" dxfId="41" priority="45">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:F35 F36:F37">
+    <cfRule type="expression" dxfId="40" priority="44">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:H56 B59:H59 B57:D58 B62:H62 B60:D61 B63:D64 F63:H64 F60:H61 F57:H58">
+    <cfRule type="expression" dxfId="39" priority="43">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:B64">
+    <cfRule type="expression" dxfId="38" priority="42">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:F62 F61 F63:F64">
+    <cfRule type="expression" dxfId="37" priority="41">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:F41 F42:F43">
+    <cfRule type="expression" dxfId="36" priority="40">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:F44 F45:F46">
+    <cfRule type="expression" dxfId="35" priority="39">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:F47 F48:F49">
+    <cfRule type="expression" dxfId="34" priority="38">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:F50 F51:F52">
+    <cfRule type="expression" dxfId="33" priority="37">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:F53 F54:F55">
+    <cfRule type="expression" dxfId="32" priority="36">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:F56 F57:F58">
+    <cfRule type="expression" dxfId="30" priority="34">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59">
+    <cfRule type="expression" dxfId="29" priority="33">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:F59 F60:F61">
+    <cfRule type="expression" dxfId="28" priority="32">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:D67 G66:H67">
+    <cfRule type="expression" dxfId="27" priority="31">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B66:B67">
+    <cfRule type="expression" dxfId="26" priority="30">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:D69 G69:H69">
+    <cfRule type="expression" dxfId="25" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69">
+    <cfRule type="expression" dxfId="24" priority="27">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65:H65 F66:F67">
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B65">
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E65:F65 F66:F67">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:D70 G70:H70">
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70">
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:H68 F69:F70">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:F68 F69:F70">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59:J70">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E31">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E37">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E40">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42:E43">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E46">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48:E49">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51:E52">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E55">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E58">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:E64">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66:E67">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:E70">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2108,24 +3496,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" ht="34.5" customHeight="1">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D2" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="e">
         <f>SelectedYear</f>
@@ -2136,9 +3524,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="e">
         <f>C3-1</f>
@@ -2149,10 +3537,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1"/>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="e">
         <f ca="1">MATCH(C7,lstYears,0)+1</f>
@@ -2175,9 +3563,9 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" thickBot="1">
+    <row r="7" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="7" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C7" s="10" t="e">
         <f>D7-1</f>
@@ -2201,9 +3589,9 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="e">
-        <f>MATCH(B8,'Product Backlog'!$C$5:$C$17,0)</f>
+        <f>MATCH(B8,'Product Backlog'!$C$5:$C$21,0)</f>
         <v>#REF!</v>
       </c>
       <c r="B8" t="e">
@@ -2211,23 +3599,23 @@
         <v>#REF!</v>
       </c>
       <c r="C8" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A8,C$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A8,C$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D8" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A8,D$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A8,D$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E8" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A8,E$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A8,E$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F8" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A8,F$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A8,F$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G8" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A8,G$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A8,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H8" s="3" t="str">
@@ -2235,9 +3623,9 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="e">
-        <f>MATCH(B9,'Product Backlog'!$C$5:$C$17,0)</f>
+        <f>MATCH(B9,'Product Backlog'!$C$5:$C$21,0)</f>
         <v>#REF!</v>
       </c>
       <c r="B9" t="e">
@@ -2245,23 +3633,23 @@
         <v>#REF!</v>
       </c>
       <c r="C9" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A9,C$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A9,C$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D9" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A9,D$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A9,D$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E9" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A9,E$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A9,E$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F9" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A9,F$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A9,F$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G9" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A9,G$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A9,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H9" s="3" t="str">
@@ -2269,9 +3657,9 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="e">
-        <f>MATCH(B10,'Product Backlog'!$C$5:$C$17,0)</f>
+        <f>MATCH(B10,'Product Backlog'!$C$5:$C$21,0)</f>
         <v>#REF!</v>
       </c>
       <c r="B10" t="e">
@@ -2279,23 +3667,23 @@
         <v>#REF!</v>
       </c>
       <c r="C10" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A10,C$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A10,C$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D10" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A10,D$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A10,D$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E10" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A10,E$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A10,E$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F10" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A10,F$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A10,F$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G10" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A10,G$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A10,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H10" s="3" t="str">
@@ -2303,9 +3691,9 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1">
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="e">
-        <f>MATCH(B11,'Product Backlog'!$C$5:$C$17,0)</f>
+        <f>MATCH(B11,'Product Backlog'!$C$5:$C$21,0)</f>
         <v>#REF!</v>
       </c>
       <c r="B11" t="e">
@@ -2313,23 +3701,23 @@
         <v>#REF!</v>
       </c>
       <c r="C11" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A11,C$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A11,C$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D11" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A11,D$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A11,D$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E11" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A11,E$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A11,E$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F11" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A11,F$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A11,F$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G11" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A11,G$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A11,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H11" s="3" t="str">
@@ -2337,9 +3725,9 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1">
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="e">
-        <f>MATCH(B12,'Product Backlog'!$C$5:$C$17,0)</f>
+        <f>MATCH(B12,'Product Backlog'!$C$5:$C$21,0)</f>
         <v>#REF!</v>
       </c>
       <c r="B12" t="e">
@@ -2347,23 +3735,23 @@
         <v>#REF!</v>
       </c>
       <c r="C12" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A12,C$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A12,C$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="D12" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A12,D$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A12,D$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="E12" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A12,E$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A12,E$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="F12" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A12,F$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A12,F$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="G12" t="e">
-        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$17,$A12,G$6),NA())</f>
+        <f ca="1">IFERROR(INDEX('Product Backlog'!$C$5:$J$21,$A12,G$6),NA())</f>
         <v>#N/A</v>
       </c>
       <c r="H12" s="3" t="str">
@@ -2371,10 +3759,10 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13.5" thickBot="1"/>
-    <row r="14" spans="1:8" ht="18.75" thickBot="1">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="7" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2383,97 +3771,97 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1">
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>ROWS($B$15:B15)</f>
         <v>1</v>
       </c>
       <c r="B15" t="str">
         <f>IF('Product Backlog'!C5=0,"",'Product Backlog'!C5)</f>
-        <v>Product Backlog Item 54</v>
+        <v>Product Backlog Item 52</v>
       </c>
       <c r="C15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A15,C$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A15,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A15,D$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A15,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A15,E$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A15,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A15,F$6),NA()))</f>
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A15,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G15" t="e">
-        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A15,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1">
+        <f ca="1">IF(B15="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A15,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>ROWS($B$15:B16)</f>
         <v>2</v>
       </c>
       <c r="B16" t="str">
-        <f>IF('Product Backlog'!C6=0,"",'Product Backlog'!C6)</f>
-        <v>Product Backlog Item 52</v>
+        <f>IF('Product Backlog'!C10=0,"",'Product Backlog'!C10)</f>
+        <v/>
       </c>
       <c r="C16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A16,C$6),NA()))</f>
+        <f>IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A16,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A16,D$6),NA()))</f>
+        <f>IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A16,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A16,E$6),NA()))</f>
+        <f>IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A16,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A16,F$6),NA()))</f>
+        <f>IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A16,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G16" t="e">
-        <f ca="1">IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A16,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B16="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A16,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>ROWS($B$15:B17)</f>
         <v>3</v>
       </c>
       <c r="B17" t="str">
-        <f>IF('Product Backlog'!C7=0,"",'Product Backlog'!C7)</f>
-        <v>Product Backlog Item 46</v>
+        <f>IF('Product Backlog'!C11=0,"",'Product Backlog'!C11)</f>
+        <v>Product Backlog Item 39</v>
       </c>
       <c r="C17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A17,C$6),NA()))</f>
+        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A17,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A17,D$6),NA()))</f>
+        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A17,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A17,E$6),NA()))</f>
+        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A17,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A17,F$6),NA()))</f>
+        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A17,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G17" t="e">
-        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A17,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B17="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A17,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>ROWS($B$15:B18)</f>
         <v>4</v>
@@ -2483,27 +3871,27 @@
         <v>#REF!</v>
       </c>
       <c r="C18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A18,C$6),NA()))</f>
+        <f>IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A18,C$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="D18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A18,D$6),NA()))</f>
+        <f>IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A18,D$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="E18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A18,E$6),NA()))</f>
+        <f>IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A18,E$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="F18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A18,F$6),NA()))</f>
+        <f>IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A18,F$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="G18" t="e">
-        <f ca="1">IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A18,G$6),NA()))</f>
+        <f>IF(B18="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A18,G$6),NA()))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1">
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>ROWS($B$15:B19)</f>
         <v>5</v>
@@ -2513,87 +3901,87 @@
         <v>#REF!</v>
       </c>
       <c r="C19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A19,C$6),NA()))</f>
+        <f>IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A19,C$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="D19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A19,D$6),NA()))</f>
+        <f>IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A19,D$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="E19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A19,E$6),NA()))</f>
+        <f>IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A19,E$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="F19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A19,F$6),NA()))</f>
+        <f>IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A19,F$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="G19" t="e">
-        <f ca="1">IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A19,G$6),NA()))</f>
+        <f>IF(B19="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A19,G$6),NA()))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1">
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>ROWS($B$15:B20)</f>
         <v>6</v>
       </c>
       <c r="B20" t="str">
-        <f>IF('Product Backlog'!C8=0,"",'Product Backlog'!C8)</f>
-        <v>Product Backlog Item 57</v>
+        <f>IF('Product Backlog'!C12=0,"",'Product Backlog'!C12)</f>
+        <v/>
       </c>
       <c r="C20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A20,C$6),NA()))</f>
+        <f>IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A20,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A20,D$6),NA()))</f>
+        <f>IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A20,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A20,E$6),NA()))</f>
+        <f>IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A20,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A20,F$6),NA()))</f>
+        <f>IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A20,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G20" t="e">
-        <f ca="1">IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A20,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B20="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A20,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>ROWS($B$15:B21)</f>
         <v>7</v>
       </c>
       <c r="B21" t="str">
-        <f>IF('Product Backlog'!C9=0,"",'Product Backlog'!C9)</f>
-        <v>Product Backlog Item 43</v>
+        <f>IF('Product Backlog'!C13=0,"",'Product Backlog'!C13)</f>
+        <v/>
       </c>
       <c r="C21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A21,C$6),NA()))</f>
+        <f>IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A21,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A21,D$6),NA()))</f>
+        <f>IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A21,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A21,E$6),NA()))</f>
+        <f>IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A21,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A21,F$6),NA()))</f>
+        <f>IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A21,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G21" t="e">
-        <f ca="1">IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A21,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B21="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A21,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>ROWS($B$15:B22)</f>
         <v>8</v>
@@ -2603,507 +3991,507 @@
         <v>#REF!</v>
       </c>
       <c r="C22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A22,C$6),NA()))</f>
+        <f>IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A22,C$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="D22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A22,D$6),NA()))</f>
+        <f>IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A22,D$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="E22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A22,E$6),NA()))</f>
+        <f>IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A22,E$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="F22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A22,F$6),NA()))</f>
+        <f>IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A22,F$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="G22" t="e">
-        <f ca="1">IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A22,G$6),NA()))</f>
+        <f>IF(B22="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A22,G$6),NA()))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>ROWS($B$15:B23)</f>
         <v>9</v>
       </c>
       <c r="B23" t="str">
-        <f>IF('Product Backlog'!C10=0,"",'Product Backlog'!C10)</f>
-        <v>Product Backlog Item 39</v>
+        <f>IF('Product Backlog'!C14=0,"",'Product Backlog'!C14)</f>
+        <v>Product Backlog Item 62</v>
       </c>
       <c r="C23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A23,C$6),NA()))</f>
+        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A23,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A23,D$6),NA()))</f>
+        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A23,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A23,E$6),NA()))</f>
+        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A23,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A23,F$6),NA()))</f>
+        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A23,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G23" t="e">
-        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A23,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B23="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A23,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>ROWS($B$15:B24)</f>
         <v>10</v>
       </c>
       <c r="B24" t="str">
-        <f>IF('Product Backlog'!C11=0,"",'Product Backlog'!C11)</f>
-        <v>Product Backlog Item 38</v>
+        <f>IF('Product Backlog'!C15=0,"",'Product Backlog'!C15)</f>
+        <v/>
       </c>
       <c r="C24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A24,C$6),NA()))</f>
+        <f>IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A24,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A24,D$6),NA()))</f>
+        <f>IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A24,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A24,E$6),NA()))</f>
+        <f>IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A24,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A24,F$6),NA()))</f>
+        <f>IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A24,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G24" t="e">
-        <f ca="1">IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A24,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B24="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A24,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>ROWS($B$15:B25)</f>
         <v>11</v>
       </c>
       <c r="B25" t="str">
-        <f>IF('Product Backlog'!C13=0,"",'Product Backlog'!C13)</f>
-        <v>Product Backlog Item 62</v>
+        <f>IF('Product Backlog'!C17=0,"",'Product Backlog'!C17)</f>
+        <v>Product Backlog Item 34</v>
       </c>
       <c r="C25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A25,C$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A25,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A25,D$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A25,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A25,E$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A25,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A25,F$6),NA()))</f>
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A25,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G25" t="e">
-        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A25,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B25="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A25,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>ROWS($B$15:B26)</f>
         <v>12</v>
       </c>
       <c r="B26" t="str">
-        <f>IF('Product Backlog'!C14=0,"",'Product Backlog'!C14)</f>
-        <v>Product Backlog Item 34</v>
+        <f>IF('Product Backlog'!C18=0,"",'Product Backlog'!C18)</f>
+        <v/>
       </c>
       <c r="C26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A26,C$6),NA()))</f>
+        <f>IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A26,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A26,D$6),NA()))</f>
+        <f>IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A26,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A26,E$6),NA()))</f>
+        <f>IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A26,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A26,F$6),NA()))</f>
+        <f>IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A26,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G26" t="e">
-        <f ca="1">IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A26,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B26="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A26,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>ROWS($B$15:B27)</f>
         <v>13</v>
       </c>
       <c r="B27" t="str">
-        <f>IF('Product Backlog'!C15=0,"",'Product Backlog'!C15)</f>
-        <v>Product Backlog Item 33</v>
+        <f>IF('Product Backlog'!C19=0,"",'Product Backlog'!C19)</f>
+        <v/>
       </c>
       <c r="C27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A27,C$6),NA()))</f>
+        <f>IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A27,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A27,D$6),NA()))</f>
+        <f>IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A27,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A27,E$6),NA()))</f>
+        <f>IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A27,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A27,F$6),NA()))</f>
+        <f>IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A27,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G27" t="e">
-        <f ca="1">IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A27,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B27="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A27,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>ROWS($B$15:B28)</f>
         <v>14</v>
       </c>
       <c r="B28" t="str">
-        <f>IF('Product Backlog'!C16=0,"",'Product Backlog'!C16)</f>
-        <v>Product Backlog Item 58</v>
+        <f>IF('Product Backlog'!C20=0,"",'Product Backlog'!C20)</f>
+        <v>Product Backlog Item 33</v>
       </c>
       <c r="C28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A28,C$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A28,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A28,D$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A28,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A28,E$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A28,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A28,F$6),NA()))</f>
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A28,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G28" t="e">
-        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A28,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B28="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A28,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>ROWS($B$15:B29)</f>
         <v>15</v>
       </c>
       <c r="B29" t="str">
-        <f>IF('Product Backlog'!C17=0,"",'Product Backlog'!C17)</f>
-        <v>Product Backlog Item 24</v>
+        <f>IF('Product Backlog'!C21=0,"",'Product Backlog'!C21)</f>
+        <v/>
       </c>
       <c r="C29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A29,C$6),NA()))</f>
+        <f>IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A29,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A29,D$6),NA()))</f>
+        <f>IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A29,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A29,E$6),NA()))</f>
+        <f>IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A29,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A29,F$6),NA()))</f>
+        <f>IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A29,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G29" t="e">
-        <f ca="1">IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A29,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B29="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A29,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>ROWS($B$15:B30)</f>
         <v>16</v>
       </c>
       <c r="B30" t="str">
-        <f>IF('Product Backlog'!C18=0,"",'Product Backlog'!C18)</f>
-        <v>Product Backlog Item 23</v>
+        <f>IF('Product Backlog'!C22=0,"",'Product Backlog'!C22)</f>
+        <v/>
       </c>
       <c r="C30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A30,C$6),NA()))</f>
+        <f>IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A30,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A30,D$6),NA()))</f>
+        <f>IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A30,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A30,E$6),NA()))</f>
+        <f>IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A30,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A30,F$6),NA()))</f>
+        <f>IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A30,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G30" t="e">
-        <f ca="1">IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A30,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B30="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A30,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>ROWS($B$15:B31)</f>
         <v>17</v>
       </c>
       <c r="B31" t="str">
-        <f>IF('Product Backlog'!C19=0,"",'Product Backlog'!C19)</f>
-        <v>Product Backlog Item 21</v>
+        <f>IF('Product Backlog'!C23=0,"",'Product Backlog'!C23)</f>
+        <v>Product Backlog Item 58</v>
       </c>
       <c r="C31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A31,C$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A31,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A31,D$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A31,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A31,E$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A31,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A31,F$6),NA()))</f>
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A31,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G31" t="e">
-        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A31,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B31="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A31,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>ROWS($B$15:B32)</f>
         <v>18</v>
       </c>
       <c r="B32" t="str">
-        <f>IF('Product Backlog'!C20=0,"",'Product Backlog'!C20)</f>
-        <v>Product Backlog Item 19</v>
+        <f>IF('Product Backlog'!C24=0,"",'Product Backlog'!C24)</f>
+        <v/>
       </c>
       <c r="C32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A32,C$6),NA()))</f>
+        <f>IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A32,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A32,D$6),NA()))</f>
+        <f>IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A32,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A32,E$6),NA()))</f>
+        <f>IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A32,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A32,F$6),NA()))</f>
+        <f>IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A32,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G32" t="e">
-        <f ca="1">IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A32,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B32="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A32,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>ROWS($B$15:B33)</f>
         <v>19</v>
       </c>
       <c r="B33" t="str">
-        <f>IF('Product Backlog'!C21=0,"",'Product Backlog'!C21)</f>
-        <v>Product Backlog Item 20</v>
+        <f>IF('Product Backlog'!C25=0,"",'Product Backlog'!C25)</f>
+        <v/>
       </c>
       <c r="C33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A33,C$6),NA()))</f>
+        <f>IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A33,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A33,D$6),NA()))</f>
+        <f>IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A33,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A33,E$6),NA()))</f>
+        <f>IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A33,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A33,F$6),NA()))</f>
+        <f>IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A33,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G33" t="e">
-        <f ca="1">IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A33,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B33="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A33,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>ROWS($B$15:B34)</f>
         <v>20</v>
       </c>
       <c r="B34" t="str">
-        <f>IF('Product Backlog'!C22=0,"",'Product Backlog'!C22)</f>
-        <v>Product Backlog Item 17</v>
+        <f>IF('Product Backlog'!C26=0,"",'Product Backlog'!C26)</f>
+        <v>Product Backlog Item 24</v>
       </c>
       <c r="C34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A34,C$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A34,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A34,D$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A34,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A34,E$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A34,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A34,F$6),NA()))</f>
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A34,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G34" t="e">
-        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A34,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B34="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A34,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>ROWS($B$15:B35)</f>
         <v>21</v>
       </c>
       <c r="B35" t="str">
-        <f>IF('Product Backlog'!C23=0,"",'Product Backlog'!C23)</f>
-        <v>Product Backlog Item 16</v>
+        <f>IF('Product Backlog'!C27=0,"",'Product Backlog'!C27)</f>
+        <v/>
       </c>
       <c r="C35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A35,C$6),NA()))</f>
+        <f>IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A35,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A35,D$6),NA()))</f>
+        <f>IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A35,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A35,E$6),NA()))</f>
+        <f>IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A35,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A35,F$6),NA()))</f>
+        <f>IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A35,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G35" t="e">
-        <f ca="1">IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A35,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B35="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A35,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>ROWS($B$15:B36)</f>
         <v>22</v>
       </c>
       <c r="B36" t="str">
-        <f>IF('Product Backlog'!C24=0,"",'Product Backlog'!C24)</f>
-        <v>Product Backlog Item 15</v>
+        <f>IF('Product Backlog'!C28=0,"",'Product Backlog'!C28)</f>
+        <v/>
       </c>
       <c r="C36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A36,C$6),NA()))</f>
+        <f>IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A36,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A36,D$6),NA()))</f>
+        <f>IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A36,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A36,E$6),NA()))</f>
+        <f>IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A36,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A36,F$6),NA()))</f>
+        <f>IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A36,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G36" t="e">
-        <f ca="1">IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A36,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B36="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A36,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>ROWS($B$15:B37)</f>
         <v>23</v>
       </c>
       <c r="B37" t="str">
-        <f>IF('Product Backlog'!C25=0,"",'Product Backlog'!C25)</f>
-        <v>Product Backlog Item 13</v>
+        <f>IF('Product Backlog'!C29=0,"",'Product Backlog'!C29)</f>
+        <v>Product Backlog Item 23</v>
       </c>
       <c r="C37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A37,C$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A37,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A37,D$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A37,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A37,E$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A37,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A37,F$6),NA()))</f>
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A37,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G37" t="e">
-        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A37,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="19.5" customHeight="1">
+        <f ca="1">IF(B37="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A37,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>ROWS($B$15:B38)</f>
         <v>24</v>
       </c>
       <c r="B38" t="str">
-        <f>IF('Product Backlog'!C26=0,"",'Product Backlog'!C26)</f>
-        <v>Product Backlog Item 12</v>
+        <f>IF('Product Backlog'!C30=0,"",'Product Backlog'!C30)</f>
+        <v/>
       </c>
       <c r="C38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A38,C$6),NA()))</f>
+        <f>IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A38,C$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="D38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A38,D$6),NA()))</f>
+        <f>IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A38,D$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="E38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A38,E$6),NA()))</f>
+        <f>IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A38,E$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="F38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A38,F$6),NA()))</f>
+        <f>IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A38,F$6),NA()))</f>
         <v>#N/A</v>
       </c>
       <c r="G38" t="e">
-        <f ca="1">IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A38,G$6),NA()))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="19.5" customHeight="1">
+        <f>IF(B38="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A38,G$6),NA()))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>ROWS($B$15:B39)</f>
         <v>25</v>
@@ -3113,23 +4501,23 @@
         <v>#REF!</v>
       </c>
       <c r="C39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A39,C$6),NA()))</f>
+        <f>IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A39,C$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="D39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A39,D$6),NA()))</f>
+        <f>IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A39,D$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="E39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A39,E$6),NA()))</f>
+        <f>IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A39,E$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="F39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A39,F$6),NA()))</f>
+        <f>IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A39,F$6),NA()))</f>
         <v>#REF!</v>
       </c>
       <c r="G39" t="e">
-        <f ca="1">IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$26,$A39,G$6),NA()))</f>
+        <f>IF(B39="",NA(),IFERROR(INDEX('Product Backlog'!$C$5:$J$30,$A39,G$6),NA()))</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -3149,12 +4537,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BD6B7AE05836784DB9DDF79838E135B0" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="56f2e1d40083bc882c879fd5f0e30a2e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1977bc59-59cf-46de-bb10-abef6dc3255c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="917e586b705a352b9e3a8a8ba2891683" ns2:_="">
     <xsd:import namespace="1977bc59-59cf-46de-bb10-abef6dc3255c"/>
@@ -3326,14 +4708,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E11F8907-776F-44AD-B681-425AE9F3D166}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E11F8907-776F-44AD-B681-425AE9F3D166}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C82FB4F2-286A-40A1-8011-220F672FEF88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C28FE173-FBF3-44D6-AF77-81820CDE339A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1977bc59-59cf-46de-bb10-abef6dc3255c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C28FE173-FBF3-44D6-AF77-81820CDE339A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C82FB4F2-286A-40A1-8011-220F672FEF88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>